--- a/data/output/posttrd_analysis.xlsx
+++ b/data/output/posttrd_analysis.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\autot0\data\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E557A3-59A0-47B6-A0FC-CA8A7E00B504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="pnl_analysis" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="fund" sheetId="3" r:id="rId3"/>
     <sheet name="security_loan_utility_analysis" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="47">
   <si>
     <t>DataDate</t>
   </si>
@@ -61,7 +55,31 @@
     <t>20210114</t>
   </si>
   <si>
+    <t>20210115</t>
+  </si>
+  <si>
+    <t>20210118</t>
+  </si>
+  <si>
+    <t>20210119</t>
+  </si>
+  <si>
+    <t>20210120</t>
+  </si>
+  <si>
+    <t>20210121</t>
+  </si>
+  <si>
     <t>20210122</t>
+  </si>
+  <si>
+    <t>20210125</t>
+  </si>
+  <si>
+    <t>20210126</t>
+  </si>
+  <si>
+    <t>20210127</t>
   </si>
   <si>
     <t>8111_m_huat_9239</t>
@@ -145,12 +163,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,15 +176,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -212,23 +223,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -270,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,27 +305,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,24 +339,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,26 +514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,15 +553,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>-201405.39</v>
@@ -630,18 +585,18 @@
         <v>-224804.8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>4120</v>
+        <v>-4120</v>
       </c>
       <c r="E3">
         <v>-2680</v>
@@ -650,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1440</v>
+        <v>-6800</v>
       </c>
       <c r="H3">
         <v>438.94</v>
@@ -659,121 +614,663 @@
         <v>77.7</v>
       </c>
       <c r="J3">
-        <v>923.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-7316.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>-5374.4</v>
+      </c>
+      <c r="E4">
+        <v>13838.9</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>8464.5</v>
+      </c>
+      <c r="H4">
+        <v>705</v>
+      </c>
+      <c r="I4">
+        <v>77.70999999999999</v>
+      </c>
+      <c r="J4">
+        <v>7681.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>-1243.6</v>
+      </c>
+      <c r="E5">
+        <v>9780.6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>8537</v>
+      </c>
+      <c r="H5">
+        <v>1802.78</v>
+      </c>
+      <c r="I5">
+        <v>370.29</v>
+      </c>
+      <c r="J5">
+        <v>6363.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>44586.1</v>
-      </c>
-      <c r="E4">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>65510.1</v>
+      </c>
+      <c r="E6">
+        <v>-103056</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-37545.9</v>
+      </c>
+      <c r="H6">
+        <v>3976.77</v>
+      </c>
+      <c r="I6">
+        <v>672.26</v>
+      </c>
+      <c r="J6">
+        <v>-42194.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>-61522.6</v>
+      </c>
+      <c r="E7">
+        <v>73178.8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>11656.2</v>
+      </c>
+      <c r="H7">
+        <v>4551.34</v>
+      </c>
+      <c r="I7">
+        <v>1100.09</v>
+      </c>
+      <c r="J7">
+        <v>6004.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>-71421.8</v>
+      </c>
+      <c r="E8">
+        <v>100824.3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>29402.5</v>
+      </c>
+      <c r="H8">
+        <v>5763.45</v>
+      </c>
+      <c r="I8">
+        <v>1294.78</v>
+      </c>
+      <c r="J8">
+        <v>22344.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>-44586.1</v>
+      </c>
+      <c r="E9">
         <v>59733</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>104319.1</v>
-      </c>
-      <c r="H4">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>15146.9</v>
+      </c>
+      <c r="H9">
         <v>6578.05</v>
       </c>
-      <c r="I4">
-        <v>2000</v>
-      </c>
-      <c r="J4">
-        <v>95741.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="I9">
+        <v>1564.18</v>
+      </c>
+      <c r="J9">
+        <v>7004.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>60041.86</v>
+      </c>
+      <c r="E10">
+        <v>-16153.1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>43888.76</v>
+      </c>
+      <c r="H10">
+        <v>8304.01</v>
+      </c>
+      <c r="I10">
+        <v>4980.43</v>
+      </c>
+      <c r="J10">
+        <v>30604.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>147494.95</v>
+      </c>
+      <c r="E11">
+        <v>-177986.2</v>
+      </c>
+      <c r="F11">
+        <v>-16791.92</v>
+      </c>
+      <c r="G11">
+        <v>-47283.17</v>
+      </c>
+      <c r="H11">
+        <v>8139.18</v>
+      </c>
+      <c r="I11">
+        <v>1705.02</v>
+      </c>
+      <c r="J11">
+        <v>-57127.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>-78605.7</v>
+      </c>
+      <c r="E12">
+        <v>46722.4</v>
+      </c>
+      <c r="F12">
+        <v>-25.48</v>
+      </c>
+      <c r="G12">
+        <v>-31908.78</v>
+      </c>
+      <c r="H12">
+        <v>8957.049999999999</v>
+      </c>
+      <c r="I12">
+        <v>2148.93</v>
+      </c>
+      <c r="J12">
+        <v>-43014.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0.03</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.03</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1599.94</v>
+      </c>
+      <c r="F14">
+        <v>-3190</v>
+      </c>
+      <c r="G14">
+        <v>-1590.06</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>-1590.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1700.31</v>
+      </c>
+      <c r="F15">
+        <v>6380.35</v>
+      </c>
+      <c r="G15">
+        <v>8080.66</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>8080.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>4700.28</v>
+      </c>
+      <c r="F16">
+        <v>-3480.4</v>
+      </c>
+      <c r="G16">
+        <v>1219.89</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1219.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>1500.02</v>
+      </c>
+      <c r="F17">
+        <v>-1450.4</v>
+      </c>
+      <c r="G17">
+        <v>129.62</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>129.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>0.03</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.03</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-3190</v>
-      </c>
-      <c r="G6">
-        <v>-3190</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>-3190</v>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1200.08</v>
+      </c>
+      <c r="F18">
+        <v>1260.57</v>
+      </c>
+      <c r="G18">
+        <v>2460.65</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2460.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1200.05</v>
+      </c>
+      <c r="F19">
+        <v>-630.3200000000001</v>
+      </c>
+      <c r="G19">
+        <v>569.73</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>569.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1200.18</v>
+      </c>
+      <c r="F20">
+        <v>2311.31</v>
+      </c>
+      <c r="G20">
+        <v>3511.49</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3511.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3700</v>
+      </c>
+      <c r="F21">
+        <v>-3151.97</v>
+      </c>
+      <c r="G21">
+        <v>548.03</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>548.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1300</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1300</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1299.99</v>
+      </c>
+      <c r="F23">
+        <v>-210.18</v>
+      </c>
+      <c r="G23">
+        <v>1089.81</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1089.81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,18 +1287,18 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>-201315.35</v>
@@ -815,19 +1312,16 @@
       <c r="F2">
         <v>-224804.76</v>
       </c>
-      <c r="G2">
-        <v>15.472999999299651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>-1750</v>
+        <v>-8390.059999999999</v>
       </c>
       <c r="D3">
         <v>438.94</v>
@@ -836,50 +1330,233 @@
         <v>77.7</v>
       </c>
       <c r="F3">
-        <v>-2266.64</v>
-      </c>
-      <c r="G3">
-        <v>-1.9999999552965161E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-8906.700000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>16545.16</v>
+      </c>
+      <c r="D4">
+        <v>705</v>
+      </c>
+      <c r="E4">
+        <v>77.70999999999999</v>
+      </c>
+      <c r="F4">
+        <v>15762.45</v>
+      </c>
+      <c r="G4">
+        <v>-0.7700000037439167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>104319.1</v>
-      </c>
-      <c r="D4">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>9756.889999999999</v>
+      </c>
+      <c r="D5">
+        <v>1802.78</v>
+      </c>
+      <c r="E5">
+        <v>370.29</v>
+      </c>
+      <c r="F5">
+        <v>7583.82</v>
+      </c>
+      <c r="G5">
+        <v>-1.000000001164153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>-37416.28</v>
+      </c>
+      <c r="D6">
+        <v>3976.77</v>
+      </c>
+      <c r="E6">
+        <v>672.26</v>
+      </c>
+      <c r="F6">
+        <v>-42065.31</v>
+      </c>
+      <c r="G6">
+        <v>-3.900000002235174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>14116.85</v>
+      </c>
+      <c r="D7">
+        <v>4551.34</v>
+      </c>
+      <c r="E7">
+        <v>1100.09</v>
+      </c>
+      <c r="F7">
+        <v>8465.42</v>
+      </c>
+      <c r="G7">
+        <v>-0.8000000007450581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>29972.23</v>
+      </c>
+      <c r="D8">
+        <v>5763.45</v>
+      </c>
+      <c r="E8">
+        <v>1294.78</v>
+      </c>
+      <c r="F8">
+        <v>22914</v>
+      </c>
+      <c r="G8">
+        <v>-2.619999999180436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>18658.39</v>
+      </c>
+      <c r="D9">
         <v>6578.05</v>
       </c>
-      <c r="E4">
-        <v>2000</v>
-      </c>
-      <c r="F4">
-        <v>95741.05</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E9">
+        <v>1564.18</v>
+      </c>
+      <c r="F9">
+        <v>10516.16</v>
+      </c>
+      <c r="G9">
+        <v>-2.100000001490116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>44436.79</v>
+      </c>
+      <c r="D10">
+        <v>8304.01</v>
+      </c>
+      <c r="E10">
+        <v>4980.43</v>
+      </c>
+      <c r="F10">
+        <v>31152.35</v>
+      </c>
+      <c r="G10">
+        <v>-0.5000000018626451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>-45983.17</v>
+      </c>
+      <c r="D11">
+        <v>8139.18</v>
+      </c>
+      <c r="E11">
+        <v>1705.02</v>
+      </c>
+      <c r="F11">
+        <v>-55827.37</v>
+      </c>
+      <c r="G11">
+        <v>7.200000001117587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>-30818.97</v>
+      </c>
+      <c r="D12">
+        <v>8957.049999999999</v>
+      </c>
+      <c r="E12">
+        <v>2148.93</v>
+      </c>
+      <c r="F12">
+        <v>-41924.95</v>
+      </c>
+      <c r="G12">
+        <v>2.700000002980232</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,33 +1564,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>979679.04</v>
+        <v>979679.03</v>
       </c>
       <c r="D2">
         <v>979679.04</v>
@@ -928,50 +1605,257 @@
         <v>29977431.18</v>
       </c>
       <c r="H2">
-        <v>30324839.039999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>30324839.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>987439.3</v>
+      </c>
+      <c r="D3">
+        <v>987438.84</v>
+      </c>
+      <c r="E3">
+        <v>29563904.29</v>
+      </c>
+      <c r="F3">
+        <v>558171.86</v>
+      </c>
+      <c r="G3">
+        <v>29993171.27</v>
+      </c>
+      <c r="H3">
+        <v>30551343.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>8992129.3699999992</v>
-      </c>
-      <c r="D3">
-        <v>8992129.3699999992</v>
-      </c>
-      <c r="E3">
-        <v>28003796.789999999</v>
-      </c>
-      <c r="F3">
-        <v>7008750.9400000004</v>
-      </c>
-      <c r="G3">
-        <v>29987175.219999999</v>
-      </c>
-      <c r="H3">
-        <v>36995926.159999996</v>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>994174.52</v>
+      </c>
+      <c r="D4">
+        <v>994173.6800000001</v>
+      </c>
+      <c r="E4">
+        <v>30765822.2</v>
+      </c>
+      <c r="F4">
+        <v>1765517.3</v>
+      </c>
+      <c r="G4">
+        <v>29994478.58</v>
+      </c>
+      <c r="H4">
+        <v>31759995.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>8952815.75</v>
+      </c>
+      <c r="D5">
+        <v>8952812.84</v>
+      </c>
+      <c r="E5">
+        <v>24262736.08</v>
+      </c>
+      <c r="F5">
+        <v>3264887.19</v>
+      </c>
+      <c r="G5">
+        <v>29950661.73</v>
+      </c>
+      <c r="H5">
+        <v>33215548.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>8959921.41</v>
+      </c>
+      <c r="D6">
+        <v>8959918.02</v>
+      </c>
+      <c r="E6">
+        <v>25768974.67</v>
+      </c>
+      <c r="F6">
+        <v>4772696.57</v>
+      </c>
+      <c r="G6">
+        <v>29956196.12</v>
+      </c>
+      <c r="H6">
+        <v>34728892.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>8983563.08</v>
+      </c>
+      <c r="D7">
+        <v>8983558.84</v>
+      </c>
+      <c r="E7">
+        <v>27002958.43</v>
+      </c>
+      <c r="F7">
+        <v>6009118.71</v>
+      </c>
+      <c r="G7">
+        <v>29977398.56</v>
+      </c>
+      <c r="H7">
+        <v>35986517.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>8992134.029999999</v>
+      </c>
+      <c r="D8">
+        <v>8992129.369999999</v>
+      </c>
+      <c r="E8">
+        <v>28003796.79</v>
+      </c>
+      <c r="F8">
+        <v>7008750.94</v>
+      </c>
+      <c r="G8">
+        <v>29987175.22</v>
+      </c>
+      <c r="H8">
+        <v>36995926.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>8812476.859999999</v>
+      </c>
+      <c r="D9">
+        <v>8812470.77</v>
+      </c>
+      <c r="E9">
+        <v>28376551.48</v>
+      </c>
+      <c r="F9">
+        <v>7169342.03</v>
+      </c>
+      <c r="G9">
+        <v>30019680.22</v>
+      </c>
+      <c r="H9">
+        <v>37189022.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>8970946.630000001</v>
+      </c>
+      <c r="D10">
+        <v>8971627.710000001</v>
+      </c>
+      <c r="E10">
+        <v>27955453</v>
+      </c>
+      <c r="F10">
+        <v>6960935.35</v>
+      </c>
+      <c r="G10">
+        <v>29966145.36</v>
+      </c>
+      <c r="H10">
+        <v>36927080.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>8929799.67</v>
+      </c>
+      <c r="D11">
+        <v>8929799.67</v>
+      </c>
+      <c r="E11">
+        <v>28198247.95</v>
+      </c>
+      <c r="F11">
+        <v>7205442.32</v>
+      </c>
+      <c r="G11">
+        <v>29922605.3</v>
+      </c>
+      <c r="H11">
+        <v>37128047.62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,66 +1866,66 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>524502</v>
+        <v>519480</v>
       </c>
       <c r="E2">
-        <v>20910808.899999991</v>
+        <v>691191</v>
       </c>
       <c r="F2">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1050,141 +1934,511 @@
         <v>116</v>
       </c>
       <c r="I2">
-        <v>349668</v>
+        <v>346320</v>
       </c>
       <c r="J2">
-        <v>349668</v>
+        <v>346320</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>699336</v>
+        <v>692640</v>
       </c>
       <c r="M2">
-        <v>699336</v>
+        <v>346320</v>
       </c>
       <c r="N2">
-        <v>29.9</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0.02</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>519480</v>
+        <v>835626</v>
       </c>
       <c r="E3">
-        <v>691191</v>
+        <v>1094955</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>116</v>
       </c>
       <c r="I3">
-        <v>346320</v>
+        <v>557084</v>
       </c>
       <c r="J3">
-        <v>346320</v>
+        <v>557084</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>692640</v>
+        <v>1114168</v>
       </c>
       <c r="M3">
-        <v>346320</v>
+        <v>557084</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>2641173</v>
+      </c>
+      <c r="E4">
+        <v>2810028</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>203</v>
+      </c>
+      <c r="I4">
+        <v>1760782</v>
+      </c>
+      <c r="J4">
+        <v>1760782</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3521564</v>
+      </c>
+      <c r="M4">
+        <v>3156505</v>
+      </c>
+      <c r="N4">
+        <v>0.8</v>
+      </c>
+      <c r="O4">
+        <v>0.44</v>
+      </c>
+      <c r="P4">
+        <v>0.09</v>
+      </c>
+      <c r="Q4">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>4881789</v>
+      </c>
+      <c r="E5">
+        <v>6243080</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>205</v>
+      </c>
+      <c r="I5">
+        <v>3254526</v>
+      </c>
+      <c r="J5">
+        <v>3254526</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6509052</v>
+      </c>
+      <c r="M5">
+        <v>4924481</v>
+      </c>
+      <c r="N5">
+        <v>0.96</v>
+      </c>
+      <c r="O5">
+        <v>0.66</v>
+      </c>
+      <c r="P5">
+        <v>0.14</v>
+      </c>
+      <c r="Q5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>7137006</v>
+      </c>
+      <c r="E6">
+        <v>7102227</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>220</v>
+      </c>
+      <c r="I6">
+        <v>4758004</v>
+      </c>
+      <c r="J6">
+        <v>4758004</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>9516008</v>
+      </c>
+      <c r="M6">
+        <v>6151664</v>
+      </c>
+      <c r="N6">
+        <v>0.75</v>
+      </c>
+      <c r="O6">
+        <v>0.65</v>
+      </c>
+      <c r="P6">
+        <v>0.15</v>
+      </c>
+      <c r="Q6">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>8987127</v>
+      </c>
+      <c r="E7">
+        <v>8982236.879999999</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <v>161</v>
+      </c>
+      <c r="I7">
+        <v>5991418</v>
+      </c>
+      <c r="J7">
+        <v>5991418</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>11982836</v>
+      </c>
+      <c r="M7">
+        <v>7563979</v>
+      </c>
+      <c r="N7">
+        <v>0.75</v>
+      </c>
+      <c r="O7">
+        <v>0.77</v>
+      </c>
+      <c r="P7">
+        <v>0.24</v>
+      </c>
+      <c r="Q7">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
         <v>10170823.5</v>
       </c>
-      <c r="E4">
+      <c r="E8">
         <v>10266291</v>
       </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
         <v>41</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>28003796.785</v>
-      </c>
-      <c r="J4">
+      <c r="H8">
+        <v>173</v>
+      </c>
+      <c r="I8">
         <v>6780549</v>
       </c>
-      <c r="K4">
-        <v>21223247.785</v>
-      </c>
-      <c r="L4">
-        <v>34784345.784999996</v>
-      </c>
-      <c r="M4">
-        <v>14063022</v>
-      </c>
-      <c r="N4">
-        <v>0.3</v>
-      </c>
-      <c r="O4">
-        <v>0.73</v>
-      </c>
-      <c r="P4">
-        <v>999999999</v>
-      </c>
-      <c r="Q4">
-        <v>0.48</v>
+      <c r="J8">
+        <v>6780549</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>13561098</v>
+      </c>
+      <c r="M8">
+        <v>7766619</v>
+      </c>
+      <c r="N8">
+        <v>0.76</v>
+      </c>
+      <c r="O8">
+        <v>0.71</v>
+      </c>
+      <c r="P8">
+        <v>0.24</v>
+      </c>
+      <c r="Q8">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>10051660.59</v>
+      </c>
+      <c r="E9">
+        <v>13108892.84</v>
+      </c>
+      <c r="F9">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>176</v>
+      </c>
+      <c r="I9">
+        <v>6916349.48</v>
+      </c>
+      <c r="J9">
+        <v>6701107.06</v>
+      </c>
+      <c r="K9">
+        <v>215242.4200000009</v>
+      </c>
+      <c r="L9">
+        <v>13617456.54</v>
+      </c>
+      <c r="M9">
+        <v>7809768</v>
+      </c>
+      <c r="N9">
+        <v>0.96</v>
+      </c>
+      <c r="O9">
+        <v>0.93</v>
+      </c>
+      <c r="P9">
+        <v>0.23</v>
+      </c>
+      <c r="Q9">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>9707852.07</v>
+      </c>
+      <c r="E10">
+        <v>12586464.43</v>
+      </c>
+      <c r="F10">
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>180</v>
+      </c>
+      <c r="I10">
+        <v>6472557</v>
+      </c>
+      <c r="J10">
+        <v>6471901.38</v>
+      </c>
+      <c r="K10">
+        <v>655.6200000001118</v>
+      </c>
+      <c r="L10">
+        <v>12944458.38</v>
+      </c>
+      <c r="M10">
+        <v>8475518</v>
+      </c>
+      <c r="N10">
+        <v>0.97</v>
+      </c>
+      <c r="O10">
+        <v>0.85</v>
+      </c>
+      <c r="P10">
+        <v>0.26</v>
+      </c>
+      <c r="Q10">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>10767642</v>
+      </c>
+      <c r="E11">
+        <v>14020062</v>
+      </c>
+      <c r="F11">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>126</v>
+      </c>
+      <c r="I11">
+        <v>7179058.140000001</v>
+      </c>
+      <c r="J11">
+        <v>7178428</v>
+      </c>
+      <c r="K11">
+        <v>630.140000000596</v>
+      </c>
+      <c r="L11">
+        <v>14357486.14</v>
+      </c>
+      <c r="M11">
+        <v>8700200</v>
+      </c>
+      <c r="N11">
+        <v>0.98</v>
+      </c>
+      <c r="O11">
+        <v>0.85</v>
+      </c>
+      <c r="P11">
+        <v>0.38</v>
+      </c>
+      <c r="Q11">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/output/posttrd_analysis.xlsx
+++ b/data/output/posttrd_analysis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="50">
   <si>
     <t>DataDate</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>20210127</t>
+  </si>
+  <si>
+    <t>20210128</t>
+  </si>
+  <si>
+    <t>20210129</t>
+  </si>
+  <si>
+    <t>20210201</t>
   </si>
   <si>
     <t>8111_m_huat_9239</t>
@@ -515,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,10 +567,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>-201405.39</v>
@@ -590,10 +599,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>-4120</v>
@@ -622,10 +631,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>-5374.4</v>
@@ -654,10 +663,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>-1243.6</v>
@@ -686,10 +695,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>65510.1</v>
@@ -718,10 +727,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>-61522.6</v>
@@ -750,10 +759,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>-71421.8</v>
@@ -782,10 +791,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>-44586.1</v>
@@ -814,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>60041.86</v>
@@ -846,10 +855,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>147494.95</v>
@@ -878,10 +887,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>-78605.7</v>
@@ -899,129 +908,129 @@
         <v>8957.049999999999</v>
       </c>
       <c r="I12">
-        <v>2148.93</v>
+        <v>1938.98</v>
       </c>
       <c r="J12">
-        <v>-43014.76</v>
+        <v>-42804.81</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>0.03</v>
+        <v>134156.92</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-114465.2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-25.97</v>
       </c>
       <c r="G13">
-        <v>0.03</v>
+        <v>19665.75</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8506.27</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1988.22</v>
       </c>
       <c r="J13">
-        <v>0.03</v>
+        <v>9171.26</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>50751.9</v>
       </c>
       <c r="E14">
-        <v>1599.94</v>
+        <v>-190960</v>
       </c>
       <c r="F14">
-        <v>-3190</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>-1590.06</v>
+        <v>-140208.1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10185.62</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2172.74</v>
       </c>
       <c r="J14">
-        <v>-1590.06</v>
+        <v>-152566.46</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-4981.7</v>
       </c>
       <c r="E15">
-        <v>1700.31</v>
+        <v>-18797.7</v>
       </c>
       <c r="F15">
-        <v>6380.35</v>
+        <v>232</v>
       </c>
       <c r="G15">
-        <v>8080.66</v>
+        <v>-23547.4</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7075.04</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3601.5</v>
       </c>
       <c r="J15">
-        <v>8080.66</v>
+        <v>-34223.94</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E16">
-        <v>4700.28</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>-3480.4</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1219.89</v>
+        <v>0.03</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1030,30 +1039,30 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1219.89</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1500.02</v>
+        <v>1599.94</v>
       </c>
       <c r="F17">
-        <v>-1450.4</v>
+        <v>-3190</v>
       </c>
       <c r="G17">
-        <v>129.62</v>
+        <v>-1590.06</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1062,30 +1071,30 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>129.62</v>
+        <v>-1590.06</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1200.08</v>
+        <v>1700.31</v>
       </c>
       <c r="F18">
-        <v>1260.57</v>
+        <v>6380.35</v>
       </c>
       <c r="G18">
-        <v>2460.65</v>
+        <v>8080.66</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1094,30 +1103,30 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2460.65</v>
+        <v>8080.66</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1200.05</v>
+        <v>4700.28</v>
       </c>
       <c r="F19">
-        <v>-630.3200000000001</v>
+        <v>-3480.4</v>
       </c>
       <c r="G19">
-        <v>569.73</v>
+        <v>1219.89</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1126,30 +1135,30 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>569.73</v>
+        <v>1219.89</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E20">
-        <v>1200.18</v>
+        <v>1500.02</v>
       </c>
       <c r="F20">
-        <v>2311.31</v>
+        <v>-1450.4</v>
       </c>
       <c r="G20">
-        <v>3511.49</v>
+        <v>129.62</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1158,30 +1167,30 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3511.49</v>
+        <v>129.62</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3700</v>
+        <v>1200.08</v>
       </c>
       <c r="F21">
-        <v>-3151.97</v>
+        <v>1260.57</v>
       </c>
       <c r="G21">
-        <v>548.03</v>
+        <v>2460.65</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1190,30 +1199,30 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>548.03</v>
+        <v>2460.65</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1300</v>
+        <v>1200.05</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-630.3200000000001</v>
       </c>
       <c r="G22">
-        <v>1300</v>
+        <v>569.73</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1222,39 +1231,231 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1300</v>
+        <v>569.73</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1200.18</v>
+      </c>
+      <c r="F23">
+        <v>2311.31</v>
+      </c>
+      <c r="G23">
+        <v>3511.49</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>3511.49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3700</v>
+      </c>
+      <c r="F24">
+        <v>-3151.97</v>
+      </c>
+      <c r="G24">
+        <v>548.03</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>548.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1300</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1300</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1299.99</v>
+      </c>
+      <c r="F26">
+        <v>-210.18</v>
+      </c>
+      <c r="G26">
+        <v>1089.81</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1089.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1299.91</v>
+      </c>
+      <c r="F27">
+        <v>-1261.16</v>
+      </c>
+      <c r="G27">
+        <v>38.74</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>38.74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1300.07</v>
+      </c>
+      <c r="F28">
+        <v>2522.48</v>
+      </c>
+      <c r="G28">
+        <v>3822.55</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3822.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1299.99</v>
-      </c>
-      <c r="F23">
-        <v>-210.18</v>
-      </c>
-      <c r="G23">
-        <v>1089.81</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1089.81</v>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>-360</v>
+      </c>
+      <c r="E29">
+        <v>5699.83</v>
+      </c>
+      <c r="F29">
+        <v>-2384.16</v>
+      </c>
+      <c r="G29">
+        <v>2955.67</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2955.67</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1287,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1298,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>-201315.35</v>
@@ -1318,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>-8390.059999999999</v>
@@ -1333,7 +1534,7 @@
         <v>-8906.700000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1341,7 +1542,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>16545.16</v>
@@ -1364,7 +1565,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>9756.889999999999</v>
@@ -1387,7 +1588,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>-37416.28</v>
@@ -1410,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>14116.85</v>
@@ -1433,7 +1634,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>29972.23</v>
@@ -1456,7 +1657,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>18658.39</v>
@@ -1479,7 +1680,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>44436.79</v>
@@ -1502,7 +1703,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>-45983.17</v>
@@ -1525,7 +1726,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>-30818.97</v>
@@ -1534,13 +1735,82 @@
         <v>8957.049999999999</v>
       </c>
       <c r="E12">
-        <v>2148.93</v>
+        <v>1938.98</v>
       </c>
       <c r="F12">
-        <v>-41924.95</v>
+        <v>-41715</v>
       </c>
       <c r="G12">
         <v>2.700000002980232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>19704.49</v>
+      </c>
+      <c r="D13">
+        <v>8506.27</v>
+      </c>
+      <c r="E13">
+        <v>1988.22</v>
+      </c>
+      <c r="F13">
+        <v>9210</v>
+      </c>
+      <c r="G13">
+        <v>1.400000002235174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>-136385.55</v>
+      </c>
+      <c r="D14">
+        <v>10185.62</v>
+      </c>
+      <c r="E14">
+        <v>2172.74</v>
+      </c>
+      <c r="F14">
+        <v>-148743.91</v>
+      </c>
+      <c r="G14">
+        <v>2.900000004097819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>-20591.73</v>
+      </c>
+      <c r="D15">
+        <v>7075.04</v>
+      </c>
+      <c r="E15">
+        <v>3601.5</v>
+      </c>
+      <c r="F15">
+        <v>-31268.27</v>
+      </c>
+      <c r="G15">
+        <v>-2.400000006891787</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1564,22 +1834,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1587,7 +1857,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>979679.03</v>
@@ -1613,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>987439.3</v>
@@ -1639,7 +1909,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>994174.52</v>
@@ -1665,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>8952815.75</v>
@@ -1691,7 +1961,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>8959921.41</v>
@@ -1717,7 +1987,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>8983563.08</v>
@@ -1743,7 +2013,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>8992134.029999999</v>
@@ -1769,7 +2039,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>8812476.859999999</v>
@@ -1795,7 +2065,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>8970946.630000001</v>
@@ -1821,7 +2091,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>8929799.67</v>
@@ -1840,6 +2110,84 @@
       </c>
       <c r="H11">
         <v>37128047.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>8940500.029999999</v>
+      </c>
+      <c r="D12">
+        <v>8941580.68</v>
+      </c>
+      <c r="E12">
+        <v>28729111.64</v>
+      </c>
+      <c r="F12">
+        <v>7742209.07</v>
+      </c>
+      <c r="G12">
+        <v>29928483.25</v>
+      </c>
+      <c r="H12">
+        <v>37670692.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>6615.32</v>
+      </c>
+      <c r="D13">
+        <v>6615.32</v>
+      </c>
+      <c r="E13">
+        <v>35782003.1</v>
+      </c>
+      <c r="F13">
+        <v>6009037.99</v>
+      </c>
+      <c r="G13">
+        <v>29779580.43</v>
+      </c>
+      <c r="H13">
+        <v>35788618.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>5952465.72</v>
+      </c>
+      <c r="D14">
+        <v>5952465.72</v>
+      </c>
+      <c r="E14">
+        <v>29448287.77</v>
+      </c>
+      <c r="F14">
+        <v>5652274.89</v>
+      </c>
+      <c r="G14">
+        <v>29748478.6</v>
+      </c>
+      <c r="H14">
+        <v>35400753.49</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +2197,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1866,46 +2214,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1913,10 +2261,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>519480</v>
@@ -1966,10 +2314,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>835626</v>
@@ -2019,10 +2367,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2641173</v>
@@ -2072,10 +2420,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>4881789</v>
@@ -2125,10 +2473,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>7137006</v>
@@ -2178,10 +2526,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>8987127</v>
@@ -2231,10 +2579,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>10170823.5</v>
@@ -2284,10 +2632,10 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>10051660.59</v>
@@ -2317,7 +2665,7 @@
         <v>13617456.54</v>
       </c>
       <c r="M9">
-        <v>7809768</v>
+        <v>7354119</v>
       </c>
       <c r="N9">
         <v>0.96</v>
@@ -2329,7 +2677,7 @@
         <v>0.23</v>
       </c>
       <c r="Q9">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2337,10 +2685,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>9707852.07</v>
@@ -2390,10 +2738,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>10767642</v>
@@ -2411,13 +2759,13 @@
         <v>126</v>
       </c>
       <c r="I11">
-        <v>7179058.140000001</v>
+        <v>7179058.14</v>
       </c>
       <c r="J11">
         <v>7178428</v>
       </c>
       <c r="K11">
-        <v>630.140000000596</v>
+        <v>630.1399999996647</v>
       </c>
       <c r="L11">
         <v>14357486.14</v>
@@ -2436,6 +2784,165 @@
       </c>
       <c r="Q11">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>10520512.5</v>
+      </c>
+      <c r="E12">
+        <v>13275142.49</v>
+      </c>
+      <c r="F12">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <v>174</v>
+      </c>
+      <c r="I12">
+        <v>7013675</v>
+      </c>
+      <c r="J12">
+        <v>7013675</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>14027350</v>
+      </c>
+      <c r="M12">
+        <v>9504177</v>
+      </c>
+      <c r="N12">
+        <v>0.95</v>
+      </c>
+      <c r="O12">
+        <v>0.89</v>
+      </c>
+      <c r="P12">
+        <v>0.27</v>
+      </c>
+      <c r="Q12">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>8964265.5</v>
+      </c>
+      <c r="E13">
+        <v>16026007</v>
+      </c>
+      <c r="F13">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>170</v>
+      </c>
+      <c r="I13">
+        <v>5978513</v>
+      </c>
+      <c r="J13">
+        <v>5976177</v>
+      </c>
+      <c r="K13">
+        <v>2336</v>
+      </c>
+      <c r="L13">
+        <v>11954690</v>
+      </c>
+      <c r="M13">
+        <v>9150084</v>
+      </c>
+      <c r="N13">
+        <v>1.34</v>
+      </c>
+      <c r="O13">
+        <v>0.85</v>
+      </c>
+      <c r="P13">
+        <v>0.28</v>
+      </c>
+      <c r="Q13">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>8426592</v>
+      </c>
+      <c r="E14">
+        <v>11089459</v>
+      </c>
+      <c r="F14">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>205</v>
+      </c>
+      <c r="I14">
+        <v>5641302</v>
+      </c>
+      <c r="J14">
+        <v>5617728</v>
+      </c>
+      <c r="K14">
+        <v>23574</v>
+      </c>
+      <c r="L14">
+        <v>11259030</v>
+      </c>
+      <c r="M14">
+        <v>7231003</v>
+      </c>
+      <c r="N14">
+        <v>0.98</v>
+      </c>
+      <c r="O14">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P14">
+        <v>0.23</v>
+      </c>
+      <c r="Q14">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/posttrd_analysis.xlsx
+++ b/data/output/posttrd_analysis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\autot0\data\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2119FA39-7BC8-4DC0-BAB0-862EC14192DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pnl_analysis" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="fund" sheetId="3" r:id="rId3"/>
     <sheet name="security_loan_utility_analysis" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="53">
   <si>
     <t>DataDate</t>
   </si>
@@ -89,6 +95,15 @@
   </si>
   <si>
     <t>20210201</t>
+  </si>
+  <si>
+    <t>20210202</t>
+  </si>
+  <si>
+    <t>20210203</t>
+  </si>
+  <si>
+    <t>20210204</t>
   </si>
   <si>
     <t>8111_m_huat_9239</t>
@@ -172,12 +187,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -185,8 +200,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -232,15 +254,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -282,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,9 +344,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,6 +396,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,14 +589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,15 +630,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>-201405.39</v>
@@ -585,24 +653,24 @@
         <v>-201315.39</v>
       </c>
       <c r="H2">
-        <v>23489.41</v>
+        <v>23489</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>-224804.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>-224805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>-4120</v>
@@ -617,24 +685,24 @@
         <v>-6800</v>
       </c>
       <c r="H3">
-        <v>438.94</v>
+        <v>439</v>
       </c>
       <c r="I3">
-        <v>77.7</v>
+        <v>78</v>
       </c>
       <c r="J3">
-        <v>-7316.64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>-7317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>-5374.4</v>
@@ -652,24 +720,24 @@
         <v>705</v>
       </c>
       <c r="I4">
-        <v>77.70999999999999</v>
+        <v>78</v>
       </c>
       <c r="J4">
-        <v>7681.79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>7682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>-1243.6</v>
+        <v>-1243.5999999999999</v>
       </c>
       <c r="E5">
         <v>9780.6</v>
@@ -681,24 +749,24 @@
         <v>8537</v>
       </c>
       <c r="H5">
-        <v>1802.78</v>
+        <v>1803</v>
       </c>
       <c r="I5">
-        <v>370.29</v>
+        <v>370</v>
       </c>
       <c r="J5">
-        <v>6363.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>65510.1</v>
@@ -713,24 +781,24 @@
         <v>-37545.9</v>
       </c>
       <c r="H6">
-        <v>3976.77</v>
+        <v>3977</v>
       </c>
       <c r="I6">
-        <v>672.26</v>
+        <v>672</v>
       </c>
       <c r="J6">
-        <v>-42194.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-42195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>-61522.6</v>
@@ -745,24 +813,24 @@
         <v>11656.2</v>
       </c>
       <c r="H7">
-        <v>4551.34</v>
+        <v>4551</v>
       </c>
       <c r="I7">
-        <v>1100.09</v>
+        <v>1100</v>
       </c>
       <c r="J7">
-        <v>6004.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>-71421.8</v>
@@ -777,24 +845,24 @@
         <v>29402.5</v>
       </c>
       <c r="H8">
-        <v>5763.45</v>
+        <v>5763</v>
       </c>
       <c r="I8">
-        <v>1294.78</v>
+        <v>1295</v>
       </c>
       <c r="J8">
-        <v>22344.27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>22344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>-44586.1</v>
@@ -809,24 +877,24 @@
         <v>15146.9</v>
       </c>
       <c r="H9">
-        <v>6578.05</v>
+        <v>6578</v>
       </c>
       <c r="I9">
-        <v>1564.18</v>
+        <v>1564</v>
       </c>
       <c r="J9">
-        <v>7004.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>7005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>60041.86</v>
@@ -841,62 +909,62 @@
         <v>43888.76</v>
       </c>
       <c r="H10">
-        <v>8304.01</v>
+        <v>8304</v>
       </c>
       <c r="I10">
-        <v>4980.43</v>
+        <v>4980</v>
       </c>
       <c r="J10">
-        <v>30604.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>30604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>147494.95</v>
+        <v>147494.95000000001</v>
       </c>
       <c r="E11">
         <v>-177986.2</v>
       </c>
       <c r="F11">
-        <v>-16791.92</v>
+        <v>-16791.919999999998</v>
       </c>
       <c r="G11">
         <v>-47283.17</v>
       </c>
       <c r="H11">
-        <v>8139.18</v>
+        <v>8139</v>
       </c>
       <c r="I11">
-        <v>1705.02</v>
+        <v>1705</v>
       </c>
       <c r="J11">
-        <v>-57127.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>-57127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>-78605.7</v>
       </c>
       <c r="E12">
-        <v>46722.4</v>
+        <v>46722.400000000001</v>
       </c>
       <c r="F12">
         <v>-25.48</v>
@@ -905,27 +973,27 @@
         <v>-31908.78</v>
       </c>
       <c r="H12">
-        <v>8957.049999999999</v>
+        <v>8957</v>
       </c>
       <c r="I12">
-        <v>1938.98</v>
+        <v>1939</v>
       </c>
       <c r="J12">
-        <v>-42804.81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>-42805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>134156.92</v>
+        <v>134156.92000000001</v>
       </c>
       <c r="E13">
         <v>-114465.2</v>
@@ -937,24 +1005,24 @@
         <v>19665.75</v>
       </c>
       <c r="H13">
-        <v>8506.27</v>
+        <v>8506</v>
       </c>
       <c r="I13">
-        <v>1988.22</v>
+        <v>1988</v>
       </c>
       <c r="J13">
-        <v>9171.26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>9171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>50751.9</v>
@@ -969,24 +1037,24 @@
         <v>-140208.1</v>
       </c>
       <c r="H14">
-        <v>10185.62</v>
+        <v>10186</v>
       </c>
       <c r="I14">
-        <v>2172.74</v>
+        <v>2173</v>
       </c>
       <c r="J14">
-        <v>-152566.46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>-152566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>-4981.7</v>
@@ -1001,477 +1069,672 @@
         <v>-23547.4</v>
       </c>
       <c r="H15">
-        <v>7075.04</v>
+        <v>7075</v>
       </c>
       <c r="I15">
-        <v>3601.5</v>
+        <v>3602</v>
       </c>
       <c r="J15">
-        <v>-34223.94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>-34224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>-54439.7</v>
+      </c>
+      <c r="E16">
+        <v>128983.6</v>
+      </c>
+      <c r="F16">
+        <v>306</v>
+      </c>
+      <c r="G16">
+        <v>74849.899999999994</v>
+      </c>
+      <c r="H16">
+        <v>5605</v>
+      </c>
+      <c r="I16">
+        <v>4483</v>
+      </c>
+      <c r="J16">
+        <v>64761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>47138.1</v>
+      </c>
+      <c r="E17">
+        <v>-13494.3</v>
+      </c>
+      <c r="F17">
+        <v>-6374</v>
+      </c>
+      <c r="G17">
+        <v>27269.8</v>
+      </c>
+      <c r="H17">
+        <v>5469</v>
+      </c>
+      <c r="I17">
+        <v>1413</v>
+      </c>
+      <c r="J17">
+        <v>20388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>54198.400000000001</v>
+      </c>
+      <c r="E18">
+        <v>-32994.5</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>21203.9</v>
+      </c>
+      <c r="H18">
+        <v>4983</v>
+      </c>
+      <c r="I18">
+        <v>4859</v>
+      </c>
+      <c r="J18">
+        <v>11362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>0.03</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.03</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1599.94</v>
+      </c>
+      <c r="F20">
+        <v>-3190</v>
+      </c>
+      <c r="G20">
+        <v>-1590.06</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>-1590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1700.31</v>
+      </c>
+      <c r="F21">
+        <v>6380.35</v>
+      </c>
+      <c r="G21">
+        <v>8080.66</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4700.28</v>
+      </c>
+      <c r="F22">
+        <v>-3480.4</v>
+      </c>
+      <c r="G22">
+        <v>1219.8900000000001</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>1500.02</v>
+      </c>
+      <c r="F23">
+        <v>-1450.4</v>
+      </c>
+      <c r="G23">
+        <v>129.62</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1200.08</v>
+      </c>
+      <c r="F24">
+        <v>1260.57</v>
+      </c>
+      <c r="G24">
+        <v>2460.65</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1200.05</v>
+      </c>
+      <c r="F25">
+        <v>-630.32000000000005</v>
+      </c>
+      <c r="G25">
+        <v>569.73</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1200.18</v>
+      </c>
+      <c r="F26">
+        <v>2311.31</v>
+      </c>
+      <c r="G26">
+        <v>3511.49</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3700</v>
+      </c>
+      <c r="F27">
+        <v>-3151.97</v>
+      </c>
+      <c r="G27">
+        <v>548.03</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1300</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1300</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1299.99</v>
+      </c>
+      <c r="F29">
+        <v>-210.18</v>
+      </c>
+      <c r="G29">
+        <v>1089.81</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1299.9100000000001</v>
+      </c>
+      <c r="F30">
+        <v>-1261.1600000000001</v>
+      </c>
+      <c r="G30">
+        <v>38.74</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1300.07</v>
+      </c>
+      <c r="F31">
+        <v>2522.48</v>
+      </c>
+      <c r="G31">
+        <v>3822.55</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>-360</v>
+      </c>
+      <c r="E32">
+        <v>5699.83</v>
+      </c>
+      <c r="F32">
+        <v>-2384.16</v>
+      </c>
+      <c r="G32">
+        <v>2955.67</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1400.04</v>
+      </c>
+      <c r="F33">
+        <v>1428.46</v>
+      </c>
+      <c r="G33">
+        <v>2828.5</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1800.05</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1800.05</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="D16">
-        <v>0.03</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0.03</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1599.94</v>
-      </c>
-      <c r="F17">
-        <v>-3190</v>
-      </c>
-      <c r="G17">
-        <v>-1590.06</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>-1590.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1700.31</v>
-      </c>
-      <c r="F18">
-        <v>6380.35</v>
-      </c>
-      <c r="G18">
-        <v>8080.66</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>8080.66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>4700.28</v>
-      </c>
-      <c r="F19">
-        <v>-3480.4</v>
-      </c>
-      <c r="G19">
-        <v>1219.89</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1219.89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20">
-        <v>80</v>
-      </c>
-      <c r="E20">
-        <v>1500.02</v>
-      </c>
-      <c r="F20">
-        <v>-1450.4</v>
-      </c>
-      <c r="G20">
-        <v>129.62</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>129.62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1200.08</v>
-      </c>
-      <c r="F21">
-        <v>1260.57</v>
-      </c>
-      <c r="G21">
-        <v>2460.65</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>2460.65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1200.05</v>
-      </c>
-      <c r="F22">
-        <v>-630.3200000000001</v>
-      </c>
-      <c r="G22">
-        <v>569.73</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>569.73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1200.18</v>
-      </c>
-      <c r="F23">
-        <v>2311.31</v>
-      </c>
-      <c r="G23">
-        <v>3511.49</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>3511.49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>3700</v>
-      </c>
-      <c r="F24">
-        <v>-3151.97</v>
-      </c>
-      <c r="G24">
-        <v>548.03</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>548.03</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1300</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1300</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1299.99</v>
-      </c>
-      <c r="F26">
-        <v>-210.18</v>
-      </c>
-      <c r="G26">
-        <v>1089.81</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1089.81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1299.91</v>
-      </c>
-      <c r="F27">
-        <v>-1261.16</v>
-      </c>
-      <c r="G27">
-        <v>38.74</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>38.74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1300.07</v>
-      </c>
-      <c r="F28">
-        <v>2522.48</v>
-      </c>
-      <c r="G28">
-        <v>3822.55</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>3822.55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29">
-        <v>-360</v>
-      </c>
-      <c r="E29">
-        <v>5699.83</v>
-      </c>
-      <c r="F29">
-        <v>-2384.16</v>
-      </c>
-      <c r="G29">
-        <v>2955.67</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>2955.67</v>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1500.21</v>
+      </c>
+      <c r="F35">
+        <v>2619.1799999999998</v>
+      </c>
+      <c r="G35">
+        <v>4119.3900000000003</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>4119</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,18 +1751,18 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>-201315.35</v>
@@ -1514,15 +1777,15 @@
         <v>-224804.76</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>-8390.059999999999</v>
+        <v>-8390.06</v>
       </c>
       <c r="D3">
         <v>438.94</v>
@@ -1531,18 +1794,18 @@
         <v>77.7</v>
       </c>
       <c r="F3">
-        <v>-8906.700000000001</v>
+        <v>-8906.7000000000007</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>16545.16</v>
@@ -1551,24 +1814,24 @@
         <v>705</v>
       </c>
       <c r="E4">
-        <v>77.70999999999999</v>
+        <v>77.709999999999994</v>
       </c>
       <c r="F4">
         <v>15762.45</v>
       </c>
       <c r="G4">
-        <v>-0.7700000037439167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.77000000374391675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>9756.889999999999</v>
+        <v>9756.89</v>
       </c>
       <c r="D5">
         <v>1802.78</v>
@@ -1583,12 +1846,12 @@
         <v>-1.000000001164153</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>-37416.28</v>
@@ -1603,15 +1866,15 @@
         <v>-42065.31</v>
       </c>
       <c r="G6">
-        <v>-3.900000002235174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-3.9000000022351742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>14116.85</v>
@@ -1620,21 +1883,21 @@
         <v>4551.34</v>
       </c>
       <c r="E7">
-        <v>1100.09</v>
+        <v>1100.0899999999999</v>
       </c>
       <c r="F7">
         <v>8465.42</v>
       </c>
       <c r="G7">
-        <v>-0.8000000007450581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.80000000074505806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>29972.23</v>
@@ -1649,15 +1912,15 @@
         <v>22914</v>
       </c>
       <c r="G8">
-        <v>-2.619999999180436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-2.6199999991804361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>18658.39</v>
@@ -1672,15 +1935,15 @@
         <v>10516.16</v>
       </c>
       <c r="G9">
-        <v>-2.100000001490116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-2.1000000014901161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>44436.79</v>
@@ -1695,15 +1958,15 @@
         <v>31152.35</v>
       </c>
       <c r="G10">
-        <v>-0.5000000018626451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.50000000186264515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>-45983.17</v>
@@ -1718,21 +1981,21 @@
         <v>-55827.37</v>
       </c>
       <c r="G11">
-        <v>7.200000001117587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>7.2000000011175871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>-30818.97</v>
       </c>
       <c r="D12">
-        <v>8957.049999999999</v>
+        <v>8957.0499999999993</v>
       </c>
       <c r="E12">
         <v>1938.98</v>
@@ -1741,18 +2004,18 @@
         <v>-41715</v>
       </c>
       <c r="G12">
-        <v>2.700000002980232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>2.7000000029802318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>19704.49</v>
+        <v>19704.490000000002</v>
       </c>
       <c r="D13">
         <v>8506.27</v>
@@ -1767,35 +2030,35 @@
         <v>1.400000002235174</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>-136385.55</v>
+        <v>-136385.54999999999</v>
       </c>
       <c r="D14">
-        <v>10185.62</v>
+        <v>10185.620000000001</v>
       </c>
       <c r="E14">
-        <v>2172.74</v>
+        <v>2172.7399999999998</v>
       </c>
       <c r="F14">
         <v>-148743.91</v>
       </c>
       <c r="G14">
-        <v>2.900000004097819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>2.9000000040978189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>-20591.73</v>
@@ -1810,23 +2073,93 @@
         <v>-31268.27</v>
       </c>
       <c r="G15">
-        <v>-2.400000006891787</v>
+        <v>-2.4000000068917871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>77678.399999999994</v>
+      </c>
+      <c r="D16">
+        <v>5605.26</v>
+      </c>
+      <c r="E16">
+        <v>4483.33</v>
+      </c>
+      <c r="F16">
+        <v>67589.81</v>
+      </c>
+      <c r="G16">
+        <v>-7.0999999977648258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>29069.85</v>
+      </c>
+      <c r="D17">
+        <v>5469.19</v>
+      </c>
+      <c r="E17">
+        <v>1412.81</v>
+      </c>
+      <c r="F17">
+        <v>22187.85</v>
+      </c>
+      <c r="G17">
+        <v>212.6060000015423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>25323.29</v>
+      </c>
+      <c r="D18">
+        <v>4983.4799999999996</v>
+      </c>
+      <c r="E18">
+        <v>4858.74</v>
+      </c>
+      <c r="F18">
+        <v>15481.07</v>
+      </c>
+      <c r="G18">
+        <v>1.8999999957159159</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1834,30 +2167,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>979679.03</v>
@@ -1875,15 +2208,15 @@
         <v>29977431.18</v>
       </c>
       <c r="H2">
-        <v>30324839.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>30324839.039999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>987439.3</v>
@@ -1892,7 +2225,7 @@
         <v>987438.84</v>
       </c>
       <c r="E3">
-        <v>29563904.29</v>
+        <v>29563904.289999999</v>
       </c>
       <c r="F3">
         <v>558171.86</v>
@@ -1901,50 +2234,50 @@
         <v>29993171.27</v>
       </c>
       <c r="H3">
-        <v>30551343.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>30551343.129999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>994174.52</v>
       </c>
       <c r="D4">
-        <v>994173.6800000001</v>
+        <v>994173.68</v>
       </c>
       <c r="E4">
-        <v>30765822.2</v>
+        <v>30765822.199999999</v>
       </c>
       <c r="F4">
         <v>1765517.3</v>
       </c>
       <c r="G4">
-        <v>29994478.58</v>
+        <v>29994478.579999998</v>
       </c>
       <c r="H4">
-        <v>31759995.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>31759995.879999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>8952815.75</v>
       </c>
       <c r="D5">
-        <v>8952812.84</v>
+        <v>8952812.8399999999</v>
       </c>
       <c r="E5">
-        <v>24262736.08</v>
+        <v>24262736.079999998</v>
       </c>
       <c r="F5">
         <v>3264887.19</v>
@@ -1953,47 +2286,47 @@
         <v>29950661.73</v>
       </c>
       <c r="H5">
-        <v>33215548.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>33215548.920000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>8959921.41</v>
+        <v>8959921.4100000001</v>
       </c>
       <c r="D6">
-        <v>8959918.02</v>
+        <v>8959918.0199999996</v>
       </c>
       <c r="E6">
-        <v>25768974.67</v>
+        <v>25768974.670000002</v>
       </c>
       <c r="F6">
         <v>4772696.57</v>
       </c>
       <c r="G6">
-        <v>29956196.12</v>
+        <v>29956196.120000001</v>
       </c>
       <c r="H6">
-        <v>34728892.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>34728892.689999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>8983563.08</v>
+        <v>8983563.0800000001</v>
       </c>
       <c r="D7">
-        <v>8983558.84</v>
+        <v>8983558.8399999999</v>
       </c>
       <c r="E7">
         <v>27002958.43</v>
@@ -2002,134 +2335,134 @@
         <v>6009118.71</v>
       </c>
       <c r="G7">
-        <v>29977398.56</v>
+        <v>29977398.559999999</v>
       </c>
       <c r="H7">
-        <v>35986517.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>35986517.270000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>8992134.029999999</v>
+        <v>8992134.0299999993</v>
       </c>
       <c r="D8">
-        <v>8992129.369999999</v>
+        <v>8992129.3699999992</v>
       </c>
       <c r="E8">
-        <v>28003796.79</v>
+        <v>28003796.789999999</v>
       </c>
       <c r="F8">
-        <v>7008750.94</v>
+        <v>7008750.9400000004</v>
       </c>
       <c r="G8">
-        <v>29987175.22</v>
+        <v>29987175.219999999</v>
       </c>
       <c r="H8">
-        <v>36995926.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>36995926.159999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>8812476.859999999</v>
+        <v>8812476.8599999994</v>
       </c>
       <c r="D9">
-        <v>8812470.77</v>
+        <v>8812470.7699999996</v>
       </c>
       <c r="E9">
         <v>28376551.48</v>
       </c>
       <c r="F9">
-        <v>7169342.03</v>
+        <v>7169342.0300000003</v>
       </c>
       <c r="G9">
-        <v>30019680.22</v>
+        <v>30019680.219999999</v>
       </c>
       <c r="H9">
         <v>37189022.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10">
-        <v>8970946.630000001</v>
+        <v>8970946.6300000008</v>
       </c>
       <c r="D10">
-        <v>8971627.710000001</v>
+        <v>8971627.7100000009</v>
       </c>
       <c r="E10">
         <v>27955453</v>
       </c>
       <c r="F10">
-        <v>6960935.35</v>
+        <v>6960935.3499999996</v>
       </c>
       <c r="G10">
-        <v>29966145.36</v>
+        <v>29966145.359999999</v>
       </c>
       <c r="H10">
-        <v>36927080.71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>36927080.710000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>8929799.67</v>
+        <v>8929799.6699999999</v>
       </c>
       <c r="D11">
-        <v>8929799.67</v>
+        <v>8929799.6699999999</v>
       </c>
       <c r="E11">
-        <v>28198247.95</v>
+        <v>28198247.949999999</v>
       </c>
       <c r="F11">
-        <v>7205442.32</v>
+        <v>7205442.3200000003</v>
       </c>
       <c r="G11">
-        <v>29922605.3</v>
+        <v>29922605.300000001</v>
       </c>
       <c r="H11">
-        <v>37128047.62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>37128047.619999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>8940500.029999999</v>
+        <v>8940500.0299999993</v>
       </c>
       <c r="D12">
-        <v>8941580.68</v>
+        <v>8941580.6799999997</v>
       </c>
       <c r="E12">
-        <v>28729111.64</v>
+        <v>28729111.640000001</v>
       </c>
       <c r="F12">
-        <v>7742209.07</v>
+        <v>7742209.0700000003</v>
       </c>
       <c r="G12">
         <v>29928483.25</v>
@@ -2138,12 +2471,12 @@
         <v>37670692.32</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>6615.32</v>
@@ -2152,58 +2485,137 @@
         <v>6615.32</v>
       </c>
       <c r="E13">
-        <v>35782003.1</v>
+        <v>35782003.100000001</v>
       </c>
       <c r="F13">
-        <v>6009037.99</v>
+        <v>6009037.9900000002</v>
       </c>
       <c r="G13">
         <v>29779580.43</v>
       </c>
       <c r="H13">
-        <v>35788618.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>35788618.420000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>5952465.72</v>
+        <v>5952465.7199999997</v>
       </c>
       <c r="D14">
-        <v>5952465.72</v>
+        <v>5952465.7199999997</v>
       </c>
       <c r="E14">
         <v>29448287.77</v>
       </c>
       <c r="F14">
-        <v>5652274.89</v>
+        <v>5652274.8899999997</v>
       </c>
       <c r="G14">
-        <v>29748478.6</v>
+        <v>29748478.600000001</v>
       </c>
       <c r="H14">
-        <v>35400753.49</v>
+        <v>35400753.490000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>5463608.3600000003</v>
+      </c>
+      <c r="D15">
+        <v>5463608.3600000003</v>
+      </c>
+      <c r="E15">
+        <v>29499990.27</v>
+      </c>
+      <c r="F15">
+        <v>5143206.9000000004</v>
+      </c>
+      <c r="G15">
+        <v>29820391.73</v>
+      </c>
+      <c r="H15">
+        <v>34963598.630000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>6056399.3300000001</v>
+      </c>
+      <c r="D16">
+        <v>6056399.3300000001</v>
+      </c>
+      <c r="E16">
+        <v>28533360.43</v>
+      </c>
+      <c r="F16">
+        <v>4745829.08</v>
+      </c>
+      <c r="G16">
+        <v>29843930.68</v>
+      </c>
+      <c r="H16">
+        <v>34589759.759999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>6069543.1100000003</v>
+      </c>
+      <c r="D17">
+        <v>6056399.3300000001</v>
+      </c>
+      <c r="E17">
+        <v>28533360.43</v>
+      </c>
+      <c r="F17">
+        <v>4745829.08</v>
+      </c>
+      <c r="G17">
+        <v>29843930.68</v>
+      </c>
+      <c r="H17">
+        <v>34589759.759999998</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2214,57 +2626,57 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>519480</v>
@@ -2309,15 +2721,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>835626</v>
@@ -2362,15 +2774,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>2641173</v>
@@ -2412,18 +2824,18 @@
         <v>0.09</v>
       </c>
       <c r="Q4">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>4881789</v>
@@ -2462,21 +2874,21 @@
         <v>0.66</v>
       </c>
       <c r="P5">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q5">
         <v>0.66</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>7137006</v>
@@ -2521,15 +2933,15 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>8987127</v>
@@ -2574,15 +2986,15 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>10170823.5</v>
@@ -2627,15 +3039,15 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>10051660.59</v>
@@ -2653,16 +3065,16 @@
         <v>176</v>
       </c>
       <c r="I9">
-        <v>6916349.48</v>
+        <v>6916349.4800000004</v>
       </c>
       <c r="J9">
-        <v>6701107.06</v>
+        <v>6701107.0599999996</v>
       </c>
       <c r="K9">
-        <v>215242.4200000009</v>
+        <v>215242.42000000089</v>
       </c>
       <c r="L9">
-        <v>13617456.54</v>
+        <v>13617456.539999999</v>
       </c>
       <c r="M9">
         <v>7354119</v>
@@ -2680,18 +3092,18 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>9707852.07</v>
+        <v>9707852.0700000003</v>
       </c>
       <c r="E10">
         <v>12586464.43</v>
@@ -2709,13 +3121,13 @@
         <v>6472557</v>
       </c>
       <c r="J10">
-        <v>6471901.38</v>
+        <v>6471901.3799999999</v>
       </c>
       <c r="K10">
-        <v>655.6200000001118</v>
+        <v>655.62000000011176</v>
       </c>
       <c r="L10">
-        <v>12944458.38</v>
+        <v>12944458.380000001</v>
       </c>
       <c r="M10">
         <v>8475518</v>
@@ -2733,15 +3145,15 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>10767642</v>
@@ -2759,16 +3171,16 @@
         <v>126</v>
       </c>
       <c r="I11">
-        <v>7179058.14</v>
+        <v>7179058.1399999997</v>
       </c>
       <c r="J11">
         <v>7178428</v>
       </c>
       <c r="K11">
-        <v>630.1399999996647</v>
+        <v>630.13999999966472</v>
       </c>
       <c r="L11">
-        <v>14357486.14</v>
+        <v>14357486.140000001</v>
       </c>
       <c r="M11">
         <v>8700200</v>
@@ -2786,15 +3198,15 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>10520512.5</v>
@@ -2839,15 +3251,15 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>8964265.5</v>
@@ -2886,21 +3298,21 @@
         <v>0.85</v>
       </c>
       <c r="P13">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q13">
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>8426592</v>
@@ -2936,7 +3348,7 @@
         <v>0.98</v>
       </c>
       <c r="O14">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="P14">
         <v>0.23</v>
@@ -2945,7 +3357,167 @@
         <v>0.78</v>
       </c>
     </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>7674226.5</v>
+      </c>
+      <c r="E15">
+        <v>9129686</v>
+      </c>
+      <c r="F15">
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <v>42</v>
+      </c>
+      <c r="H15">
+        <v>206</v>
+      </c>
+      <c r="I15">
+        <v>5690176</v>
+      </c>
+      <c r="J15">
+        <v>5116151</v>
+      </c>
+      <c r="K15">
+        <v>574025</v>
+      </c>
+      <c r="L15">
+        <v>10806327</v>
+      </c>
+      <c r="M15">
+        <v>6298776</v>
+      </c>
+      <c r="N15">
+        <v>0.84</v>
+      </c>
+      <c r="O15">
+        <v>0.93</v>
+      </c>
+      <c r="P15">
+        <v>0.2</v>
+      </c>
+      <c r="Q15">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>7124863.5</v>
+      </c>
+      <c r="E16">
+        <v>8075512.2999999998</v>
+      </c>
+      <c r="F16">
+        <v>33</v>
+      </c>
+      <c r="G16">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>4749909</v>
+      </c>
+      <c r="J16">
+        <v>4749909</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>9499818</v>
+      </c>
+      <c r="M16">
+        <v>5210741</v>
+      </c>
+      <c r="N16">
+        <v>0.85</v>
+      </c>
+      <c r="O16">
+        <v>0.94</v>
+      </c>
+      <c r="P16">
+        <v>999999999</v>
+      </c>
+      <c r="Q16">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>6974824.5</v>
+      </c>
+      <c r="E17">
+        <v>7770288</v>
+      </c>
+      <c r="F17">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>4649883</v>
+      </c>
+      <c r="J17">
+        <v>4649883</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>9299766</v>
+      </c>
+      <c r="M17">
+        <v>4649883</v>
+      </c>
+      <c r="N17">
+        <v>0.84</v>
+      </c>
+      <c r="O17">
+        <v>0.88</v>
+      </c>
+      <c r="P17">
+        <v>999999999</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/output/posttrd_analysis.xlsx
+++ b/data/output/posttrd_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\autot0\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2119FA39-7BC8-4DC0-BAB0-862EC14192DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E182B-E2C3-45E9-84A8-0F10A04C6E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15435" yWindow="4170" windowWidth="12570" windowHeight="16980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pnl_analysis" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="61">
   <si>
     <t>DataDate</t>
   </si>
@@ -106,6 +106,12 @@
     <t>20210204</t>
   </si>
   <si>
+    <t>20210205</t>
+  </si>
+  <si>
+    <t>20210208</t>
+  </si>
+  <si>
     <t>8111_m_huat_9239</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
     <t>DifCFFromIndirectMethod</t>
   </si>
   <si>
+    <t>3004_m_hait_8866</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -140,6 +149,21 @@
   </si>
   <si>
     <t>CollateralMarketValue</t>
+  </si>
+  <si>
+    <t>TotalAsset</t>
+  </si>
+  <si>
+    <t>LiabilityFromFinance</t>
+  </si>
+  <si>
+    <t>LiabilityFromSecLoan</t>
+  </si>
+  <si>
+    <t>AvailableMarginAmt</t>
+  </si>
+  <si>
+    <t>MaintenanceRatio</t>
   </si>
   <si>
     <t>ExpectedNetAsset</t>
@@ -590,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -635,10 +659,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>-201405.39</v>
@@ -667,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>-4120</v>
@@ -699,10 +723,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>-5374.4</v>
@@ -731,10 +755,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>-1243.5999999999999</v>
@@ -763,10 +787,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>65510.1</v>
@@ -795,10 +819,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>-61522.6</v>
@@ -827,10 +851,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>-71421.8</v>
@@ -859,10 +883,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>-44586.1</v>
@@ -891,10 +915,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>60041.86</v>
@@ -923,10 +947,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>147494.95000000001</v>
@@ -955,10 +979,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>-78605.7</v>
@@ -987,10 +1011,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>134156.92000000001</v>
@@ -1019,10 +1043,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>50751.9</v>
@@ -1051,10 +1075,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>-4981.7</v>
@@ -1083,10 +1107,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>-54439.7</v>
@@ -1115,10 +1139,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>47138.1</v>
@@ -1147,10 +1171,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>54198.400000000001</v>
@@ -1168,97 +1192,97 @@
         <v>4983</v>
       </c>
       <c r="I18">
-        <v>4859</v>
+        <v>1173</v>
       </c>
       <c r="J18">
-        <v>11362</v>
+        <v>15048</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>0.03</v>
+        <v>166813.79999999999</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>-103236.2</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.03</v>
+        <v>63577.599999999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4396</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>57990</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>-34436.400000000001</v>
       </c>
       <c r="E20">
-        <v>1599.94</v>
+        <v>33993.5</v>
       </c>
       <c r="F20">
-        <v>-3190</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>-1590.06</v>
+        <v>-442.9</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2436</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3718</v>
       </c>
       <c r="J20">
-        <v>-1590</v>
+        <v>-6597</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E21">
-        <v>1700.31</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>6380.35</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>8080.66</v>
+        <v>0.03</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1267,30 +1291,30 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4700.28</v>
+        <v>1599.94</v>
       </c>
       <c r="F22">
-        <v>-3480.4</v>
+        <v>-3190</v>
       </c>
       <c r="G22">
-        <v>1219.8900000000001</v>
+        <v>-1590.06</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1299,30 +1323,30 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1220</v>
+        <v>-1590</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1500.02</v>
+        <v>1700.31</v>
       </c>
       <c r="F23">
-        <v>-1450.4</v>
+        <v>6380.35</v>
       </c>
       <c r="G23">
-        <v>129.62</v>
+        <v>8080.66</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1331,30 +1355,30 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>130</v>
+        <v>8081</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1200.08</v>
+        <v>4700.28</v>
       </c>
       <c r="F24">
-        <v>1260.57</v>
+        <v>-3480.4</v>
       </c>
       <c r="G24">
-        <v>2460.65</v>
+        <v>1219.8900000000001</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1363,30 +1387,30 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2461</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E25">
-        <v>1200.05</v>
+        <v>1500.02</v>
       </c>
       <c r="F25">
-        <v>-630.32000000000005</v>
+        <v>-1450.4</v>
       </c>
       <c r="G25">
-        <v>569.73</v>
+        <v>129.62</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1395,30 +1419,30 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>570</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1200.18</v>
+        <v>1200.08</v>
       </c>
       <c r="F26">
-        <v>2311.31</v>
+        <v>1260.57</v>
       </c>
       <c r="G26">
-        <v>3511.49</v>
+        <v>2460.65</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1427,30 +1451,30 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3511</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3700</v>
+        <v>1200.05</v>
       </c>
       <c r="F27">
-        <v>-3151.97</v>
+        <v>-630.32000000000005</v>
       </c>
       <c r="G27">
-        <v>548.03</v>
+        <v>569.73</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1459,30 +1483,30 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>548</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1300</v>
+        <v>1200.18</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2311.31</v>
       </c>
       <c r="G28">
-        <v>1300</v>
+        <v>3511.49</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1491,30 +1515,30 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1300</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1299.99</v>
+        <v>3700</v>
       </c>
       <c r="F29">
-        <v>-210.18</v>
+        <v>-3151.97</v>
       </c>
       <c r="G29">
-        <v>1089.81</v>
+        <v>548.03</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1523,30 +1547,30 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1090</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1299.9100000000001</v>
+        <v>1300</v>
       </c>
       <c r="F30">
-        <v>-1261.1600000000001</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>38.74</v>
+        <v>1300</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1555,30 +1579,30 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>39</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1300.07</v>
+        <v>1299.99</v>
       </c>
       <c r="F31">
-        <v>2522.48</v>
+        <v>-210.18</v>
       </c>
       <c r="G31">
-        <v>3822.55</v>
+        <v>1089.81</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1587,30 +1611,30 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3823</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>-360</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>5699.83</v>
+        <v>1299.9100000000001</v>
       </c>
       <c r="F32">
-        <v>-2384.16</v>
+        <v>-1261.1600000000001</v>
       </c>
       <c r="G32">
-        <v>2955.67</v>
+        <v>38.74</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1619,30 +1643,30 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2956</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1400.04</v>
+        <v>1300.07</v>
       </c>
       <c r="F33">
-        <v>1428.46</v>
+        <v>2522.48</v>
       </c>
       <c r="G33">
-        <v>2828.5</v>
+        <v>3822.55</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1651,30 +1675,30 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2829</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>-360</v>
       </c>
       <c r="E34">
-        <v>1800.05</v>
+        <v>5699.83</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>-2384.16</v>
       </c>
       <c r="G34">
-        <v>1800.05</v>
+        <v>2955.67</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1683,39 +1707,167 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1800</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1400.04</v>
+      </c>
+      <c r="F35">
+        <v>1428.46</v>
+      </c>
+      <c r="G35">
+        <v>2828.5</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1800.05</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1800.05</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1500.21</v>
+      </c>
+      <c r="F37">
+        <v>2619.1799999999998</v>
+      </c>
+      <c r="G37">
+        <v>4119.3900000000003</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>1500.21</v>
-      </c>
-      <c r="F35">
-        <v>2619.1799999999998</v>
-      </c>
-      <c r="G35">
-        <v>4119.3900000000003</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>4119</v>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1500.56</v>
+      </c>
+      <c r="F38">
+        <v>5476.81</v>
+      </c>
+      <c r="G38">
+        <v>6977.36</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>5301.06</v>
+      </c>
+      <c r="F39">
+        <v>-4048.33</v>
+      </c>
+      <c r="G39">
+        <v>1252.73</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1253</v>
       </c>
     </row>
   </sheetData>
@@ -1726,13 +1878,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -1751,10 +1912,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1762,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>-201315.35</v>
@@ -1782,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>-8390.06</v>
@@ -1797,7 +1958,7 @@
         <v>-8906.7000000000007</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1805,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>16545.16</v>
@@ -1828,7 +1989,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>9756.89</v>
@@ -1851,7 +2012,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>-37416.28</v>
@@ -1874,7 +2035,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>14116.85</v>
@@ -1897,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>29972.23</v>
@@ -1920,7 +2081,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>18658.39</v>
@@ -1943,7 +2104,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>44436.79</v>
@@ -1966,7 +2127,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>-45983.17</v>
@@ -1989,7 +2150,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>-30818.97</v>
@@ -2012,7 +2173,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>19704.490000000002</v>
@@ -2035,7 +2196,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>-136385.54999999999</v>
@@ -2058,7 +2219,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>-20591.73</v>
@@ -2081,7 +2242,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>77678.399999999994</v>
@@ -2104,62 +2265,155 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>29069.85</v>
+        <v>35443.85</v>
       </c>
       <c r="D17">
-        <v>5469.19</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1412.81</v>
+        <v>1217.52</v>
       </c>
       <c r="F17">
-        <v>22187.85</v>
-      </c>
-      <c r="G17">
-        <v>212.6060000015423</v>
+        <v>34226.33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>29069.85</v>
+      </c>
+      <c r="D18">
+        <v>5469.19</v>
+      </c>
+      <c r="E18">
+        <v>1412.81</v>
+      </c>
+      <c r="F18">
+        <v>22187.85</v>
+      </c>
+      <c r="G18">
+        <v>212.6060000015423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>25323.29</v>
+      </c>
+      <c r="D19">
+        <v>4983.4799999999996</v>
+      </c>
+      <c r="E19">
+        <v>1172.77</v>
+      </c>
+      <c r="F19">
+        <v>19167.04</v>
+      </c>
+      <c r="G19">
+        <v>1.8999999957159159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="C18">
-        <v>25323.29</v>
-      </c>
-      <c r="D18">
-        <v>4983.4799999999996</v>
-      </c>
-      <c r="E18">
-        <v>4858.74</v>
-      </c>
-      <c r="F18">
-        <v>15481.07</v>
-      </c>
-      <c r="G18">
-        <v>1.8999999957159159</v>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>70554.960000000006</v>
+      </c>
+      <c r="D20">
+        <v>4395.99</v>
+      </c>
+      <c r="E20">
+        <v>1191.21</v>
+      </c>
+      <c r="F20">
+        <v>64967.76</v>
+      </c>
+      <c r="G20">
+        <v>-7.3299999972805381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>809.83</v>
+      </c>
+      <c r="D21">
+        <v>2436.36</v>
+      </c>
+      <c r="E21">
+        <v>3718</v>
+      </c>
+      <c r="F21">
+        <v>-5344.53</v>
+      </c>
+      <c r="G21">
+        <v>803.85999999847263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>4858.16</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1217.52</v>
+      </c>
+      <c r="F22">
+        <v>3640.64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2167,30 +2421,45 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>979679.03</v>
@@ -2211,12 +2480,12 @@
         <v>30324839.039999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>987439.3</v>
@@ -2237,12 +2506,12 @@
         <v>30551343.129999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>994174.52</v>
@@ -2263,12 +2532,12 @@
         <v>31759995.879999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>8952815.75</v>
@@ -2289,12 +2558,12 @@
         <v>33215548.920000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>8959921.4100000001</v>
@@ -2315,12 +2584,12 @@
         <v>34728892.689999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>8983563.0800000001</v>
@@ -2341,12 +2610,12 @@
         <v>35986517.270000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>8992134.0299999993</v>
@@ -2367,12 +2636,12 @@
         <v>36995926.159999996</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>8812476.8599999994</v>
@@ -2393,12 +2662,12 @@
         <v>37189022.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>8970946.6300000008</v>
@@ -2419,12 +2688,12 @@
         <v>36927080.710000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>8929799.6699999999</v>
@@ -2445,12 +2714,12 @@
         <v>37128047.619999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>8940500.0299999993</v>
@@ -2471,12 +2740,12 @@
         <v>37670692.32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>6615.32</v>
@@ -2497,12 +2766,12 @@
         <v>35788618.420000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>5952465.7199999997</v>
@@ -2523,12 +2792,12 @@
         <v>35400753.490000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>5463608.3600000003</v>
@@ -2549,41 +2818,53 @@
         <v>34963598.630000003</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C16">
+        <v>5149029.8499999996</v>
+      </c>
+      <c r="D16">
+        <v>3955708.14</v>
+      </c>
+      <c r="E16">
+        <v>3995159.2439999999</v>
+      </c>
+      <c r="F16">
+        <v>5073382.8</v>
+      </c>
+      <c r="G16">
+        <v>4070806.2940000012</v>
+      </c>
+      <c r="I16">
+        <v>9144189.0940000005</v>
+      </c>
+      <c r="J16">
+        <v>18262.8</v>
+      </c>
+      <c r="K16">
+        <v>5055120</v>
+      </c>
+      <c r="L16">
+        <v>1529443.3685999999</v>
+      </c>
+      <c r="M16">
+        <v>1.8024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
         <v>6056399.3300000001</v>
-      </c>
-      <c r="D16">
-        <v>6056399.3300000001</v>
-      </c>
-      <c r="E16">
-        <v>28533360.43</v>
-      </c>
-      <c r="F16">
-        <v>4745829.08</v>
-      </c>
-      <c r="G16">
-        <v>29843930.68</v>
-      </c>
-      <c r="H16">
-        <v>34589759.759999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>6069543.1100000003</v>
       </c>
       <c r="D17">
         <v>6056399.3300000001</v>
@@ -2599,6 +2880,122 @@
       </c>
       <c r="H17">
         <v>34589759.759999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>6069543.1100000003</v>
+      </c>
+      <c r="D18">
+        <v>6056399.3300000001</v>
+      </c>
+      <c r="E18">
+        <v>28533360.43</v>
+      </c>
+      <c r="F18">
+        <v>4745829.08</v>
+      </c>
+      <c r="G18">
+        <v>29843930.68</v>
+      </c>
+      <c r="H18">
+        <v>34589759.759999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>6127540.8399999999</v>
+      </c>
+      <c r="D19">
+        <v>6128726.0599999996</v>
+      </c>
+      <c r="E19">
+        <v>28233960.510000002</v>
+      </c>
+      <c r="F19">
+        <v>4434083.5599999996</v>
+      </c>
+      <c r="G19">
+        <v>29928603.010000002</v>
+      </c>
+      <c r="H19">
+        <v>34362686.57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>6120939.8799999999</v>
+      </c>
+      <c r="D20">
+        <v>6128726.0599999996</v>
+      </c>
+      <c r="E20">
+        <v>28233960.510000002</v>
+      </c>
+      <c r="F20">
+        <v>4434083.5599999996</v>
+      </c>
+      <c r="G20">
+        <v>29928603.010000002</v>
+      </c>
+      <c r="H20">
+        <v>34362686.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>5149029.8499999996</v>
+      </c>
+      <c r="D21">
+        <v>3955708.14</v>
+      </c>
+      <c r="E21">
+        <v>3996619.2620000001</v>
+      </c>
+      <c r="F21">
+        <v>5138510.4000000004</v>
+      </c>
+      <c r="G21">
+        <v>4007138.7119999989</v>
+      </c>
+      <c r="I21">
+        <v>9145649.1119999997</v>
+      </c>
+      <c r="J21">
+        <v>24350.400000000001</v>
+      </c>
+      <c r="K21">
+        <v>5114160</v>
+      </c>
+      <c r="L21">
+        <v>1441870.144799999</v>
+      </c>
+      <c r="M21">
+        <v>1.7798</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +3006,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2626,46 +3023,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -2673,10 +3070,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>519480</v>
@@ -2726,10 +3123,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>835626</v>
@@ -2779,10 +3176,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>2641173</v>
@@ -2832,10 +3229,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>4881789</v>
@@ -2885,10 +3282,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>7137006</v>
@@ -2938,10 +3335,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>8987127</v>
@@ -2991,10 +3388,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>10170823.5</v>
@@ -3044,10 +3441,10 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>10051660.59</v>
@@ -3097,10 +3494,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>9707852.0700000003</v>
@@ -3150,10 +3547,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>10767642</v>
@@ -3203,10 +3600,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>10520512.5</v>
@@ -3256,10 +3653,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>8964265.5</v>
@@ -3309,10 +3706,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>8426592</v>
@@ -3362,10 +3759,10 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>7674226.5</v>
@@ -3415,105 +3812,317 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>7124863.5</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>8075512.2999999998</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4749909</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4749909</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9499818</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>5210741</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.85</v>
+        <v>999999</v>
       </c>
       <c r="O16">
-        <v>0.94</v>
+        <v>999999999</v>
       </c>
       <c r="P16">
         <v>999999999</v>
       </c>
       <c r="Q16">
-        <v>0.91</v>
+        <v>999999999</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>6974824.5</v>
+        <v>7124863.5</v>
       </c>
       <c r="E17">
-        <v>7770288</v>
+        <v>8075512.2999999998</v>
       </c>
       <c r="F17">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G17">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4649883</v>
+        <v>4749909</v>
       </c>
       <c r="J17">
-        <v>4649883</v>
+        <v>4749909</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9299766</v>
+        <v>9499818</v>
       </c>
       <c r="M17">
-        <v>4649883</v>
+        <v>5210741</v>
       </c>
       <c r="N17">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="O17">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
       <c r="P17">
         <v>999999999</v>
       </c>
       <c r="Q17">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>6974824.5</v>
+      </c>
+      <c r="E18">
+        <v>7770288</v>
+      </c>
+      <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>4649883</v>
+      </c>
+      <c r="J18">
+        <v>4649883</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>9299766</v>
+      </c>
+      <c r="M18">
+        <v>4649883</v>
+      </c>
+      <c r="N18">
+        <v>0.84</v>
+      </c>
+      <c r="O18">
+        <v>0.88</v>
+      </c>
+      <c r="P18">
+        <v>999999999</v>
+      </c>
+      <c r="Q18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>5812806</v>
+      </c>
+      <c r="E19">
+        <v>6818746.9299999997</v>
+      </c>
+      <c r="F19">
+        <v>27</v>
+      </c>
+      <c r="G19">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>3875204</v>
+      </c>
+      <c r="J19">
+        <v>3875204</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>7750408</v>
+      </c>
+      <c r="M19">
+        <v>4412950</v>
+      </c>
+      <c r="N19">
+        <v>0.88</v>
+      </c>
+      <c r="O19">
+        <v>0.84</v>
+      </c>
+      <c r="P19">
+        <v>999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3806851.4</v>
+      </c>
+      <c r="F20">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>999999</v>
+      </c>
+      <c r="O20">
+        <v>999999999</v>
+      </c>
+      <c r="P20">
+        <v>999999999</v>
+      </c>
+      <c r="Q20">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>999999</v>
+      </c>
+      <c r="O21">
+        <v>999999999</v>
+      </c>
+      <c r="P21">
+        <v>999999999</v>
+      </c>
+      <c r="Q21">
+        <v>999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/posttrd_analysis.xlsx
+++ b/data/output/posttrd_analysis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
   <si>
     <t>DataDate</t>
   </si>
@@ -52,6 +52,30 @@
     <t>20210223</t>
   </si>
   <si>
+    <t>20210224</t>
+  </si>
+  <si>
+    <t>20210225</t>
+  </si>
+  <si>
+    <t>20210226</t>
+  </si>
+  <si>
+    <t>20210301</t>
+  </si>
+  <si>
+    <t>20210302</t>
+  </si>
+  <si>
+    <t>20210303</t>
+  </si>
+  <si>
+    <t>20210304</t>
+  </si>
+  <si>
+    <t>20210305</t>
+  </si>
+  <si>
     <t>20210222</t>
   </si>
   <si>
@@ -68,6 +92,9 @@
   </si>
   <si>
     <t>DifCFFromIndirectMethod</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>DataSourceType</t>
@@ -512,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>-3984</v>
@@ -587,63 +614,575 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>55871.7</v>
       </c>
       <c r="E3">
-        <v>3800.17</v>
+        <v>-41947.5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-609</v>
       </c>
       <c r="G3">
-        <v>3800.17</v>
+        <v>13315.2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5802</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="J3">
-        <v>3800</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>52392.6</v>
+      </c>
+      <c r="E4">
+        <v>-52398</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>24.6</v>
+      </c>
+      <c r="H4">
+        <v>6999</v>
+      </c>
+      <c r="I4">
+        <v>1376</v>
+      </c>
+      <c r="J4">
+        <v>-8350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>-25543.5</v>
+      </c>
+      <c r="E5">
+        <v>20422</v>
+      </c>
+      <c r="F5">
+        <v>-512</v>
+      </c>
+      <c r="G5">
+        <v>-5633.5</v>
+      </c>
+      <c r="H5">
+        <v>6453</v>
+      </c>
+      <c r="I5">
+        <v>4127</v>
+      </c>
+      <c r="J5">
+        <v>-16214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>-62113</v>
+      </c>
+      <c r="E6">
+        <v>23511.3</v>
+      </c>
+      <c r="F6">
+        <v>7060</v>
+      </c>
+      <c r="G6">
+        <v>-31541.7</v>
+      </c>
+      <c r="H6">
+        <v>6772</v>
+      </c>
+      <c r="I6">
+        <v>1473</v>
+      </c>
+      <c r="J6">
+        <v>-39786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>20623.3</v>
+      </c>
+      <c r="E7">
+        <v>-39632.7</v>
+      </c>
+      <c r="F7">
+        <v>-17220</v>
+      </c>
+      <c r="G7">
+        <v>-36229.4</v>
+      </c>
+      <c r="H7">
+        <v>5131</v>
+      </c>
+      <c r="I7">
+        <v>1495</v>
+      </c>
+      <c r="J7">
+        <v>-42855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>-59996.2</v>
+      </c>
+      <c r="E8">
+        <v>86121.8</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>26125.6</v>
+      </c>
+      <c r="H8">
+        <v>4770</v>
+      </c>
+      <c r="I8">
+        <v>1532</v>
+      </c>
+      <c r="J8">
+        <v>19823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>120367.7</v>
+      </c>
+      <c r="E9">
+        <v>-57493.5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>62874.2</v>
+      </c>
+      <c r="H9">
+        <v>7501</v>
+      </c>
+      <c r="I9">
+        <v>1623</v>
+      </c>
+      <c r="J9">
+        <v>53750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>-53332.8</v>
+      </c>
+      <c r="E10">
+        <v>98752.8</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>45420</v>
+      </c>
+      <c r="H10">
+        <v>8653</v>
+      </c>
+      <c r="I10">
+        <v>5213</v>
+      </c>
+      <c r="J10">
+        <v>31554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3800.17</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3800.17</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>900.04</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>900.04</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>-40</v>
+      </c>
+      <c r="E13">
+        <v>1000.05</v>
+      </c>
+      <c r="F13">
+        <v>-65.56</v>
+      </c>
+      <c r="G13">
+        <v>894.49</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>-154.44</v>
+      </c>
+      <c r="E14">
+        <v>800.0599999999999</v>
+      </c>
+      <c r="F14">
+        <v>2248.85</v>
+      </c>
+      <c r="G14">
+        <v>2894.47</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>300.05</v>
+      </c>
+      <c r="F15">
+        <v>2306.84</v>
+      </c>
+      <c r="G15">
+        <v>2606.89</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>900.04</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>900.04</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>900</v>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>-0.01</v>
+      </c>
+      <c r="E16">
+        <v>600.04</v>
+      </c>
+      <c r="F16">
+        <v>2248.02</v>
+      </c>
+      <c r="G16">
+        <v>2848.05</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>200.02</v>
+      </c>
+      <c r="F17">
+        <v>3318.02</v>
+      </c>
+      <c r="G17">
+        <v>3518.03</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>200.04</v>
+      </c>
+      <c r="F18">
+        <v>3455.98</v>
+      </c>
+      <c r="G18">
+        <v>3656.02</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>200.01</v>
+      </c>
+      <c r="F19">
+        <v>-6123.33</v>
+      </c>
+      <c r="G19">
+        <v>-5923.32</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>-5923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>200.04</v>
+      </c>
+      <c r="F20">
+        <v>5375.87</v>
+      </c>
+      <c r="G20">
+        <v>5575.9</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5576</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -676,18 +1215,18 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>3800.17</v>
@@ -710,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>177.94</v>
@@ -726,6 +1265,190 @@
       </c>
       <c r="G3">
         <v>13053126.29900001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>14209.69</v>
+      </c>
+      <c r="D4">
+        <v>5801.63</v>
+      </c>
+      <c r="E4">
+        <v>1272.39</v>
+      </c>
+      <c r="F4">
+        <v>7135.67</v>
+      </c>
+      <c r="G4">
+        <v>-5563.948000004981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2919.07</v>
+      </c>
+      <c r="D5">
+        <v>6999.08</v>
+      </c>
+      <c r="E5">
+        <v>1375.57</v>
+      </c>
+      <c r="F5">
+        <v>-5455.58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>-3026.61</v>
+      </c>
+      <c r="D6">
+        <v>6453.37</v>
+      </c>
+      <c r="E6">
+        <v>4126.79</v>
+      </c>
+      <c r="F6">
+        <v>-13606.77</v>
+      </c>
+      <c r="G6">
+        <v>-5.470000004395843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>-28693.65</v>
+      </c>
+      <c r="D7">
+        <v>6771.88</v>
+      </c>
+      <c r="E7">
+        <v>1472.54</v>
+      </c>
+      <c r="F7">
+        <v>-36938.07</v>
+      </c>
+      <c r="G7">
+        <v>14.37000000476837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>-32711.37</v>
+      </c>
+      <c r="D8">
+        <v>5130.82</v>
+      </c>
+      <c r="E8">
+        <v>1494.57</v>
+      </c>
+      <c r="F8">
+        <v>-39336.76</v>
+      </c>
+      <c r="G8">
+        <v>-20.97999999858439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>29781.62</v>
+      </c>
+      <c r="D9">
+        <v>4770.39</v>
+      </c>
+      <c r="E9">
+        <v>1532.44</v>
+      </c>
+      <c r="F9">
+        <v>23478.79</v>
+      </c>
+      <c r="G9">
+        <v>-2995.370000004768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>56950.88</v>
+      </c>
+      <c r="D10">
+        <v>7501.27</v>
+      </c>
+      <c r="E10">
+        <v>1623.25</v>
+      </c>
+      <c r="F10">
+        <v>47826.36</v>
+      </c>
+      <c r="G10">
+        <v>2994.570000002161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>50995.9</v>
+      </c>
+      <c r="D11">
+        <v>8653.459999999999</v>
+      </c>
+      <c r="E11">
+        <v>5212.52</v>
+      </c>
+      <c r="F11">
+        <v>37129.92</v>
+      </c>
+      <c r="G11">
+        <v>23.02999999932945</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -749,51 +1472,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>1598549.350000001</v>
@@ -816,13 +1539,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>1598549.350000001</v>
@@ -845,10 +1568,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1598549.35</v>
@@ -886,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1576552.44</v>
@@ -917,6 +1640,272 @@
       </c>
       <c r="N5">
         <v>26.079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>14033255.09</v>
+      </c>
+      <c r="E6">
+        <v>39163027.7757</v>
+      </c>
+      <c r="F6">
+        <v>7025135.859999999</v>
+      </c>
+      <c r="G6">
+        <v>45923826.559</v>
+      </c>
+      <c r="H6">
+        <v>6760798.7833</v>
+      </c>
+      <c r="J6">
+        <v>31890571.469</v>
+      </c>
+      <c r="K6">
+        <v>3518.7833</v>
+      </c>
+      <c r="L6">
+        <v>6757280</v>
+      </c>
+      <c r="M6">
+        <v>28514100.30279999</v>
+      </c>
+      <c r="N6">
+        <v>6.7927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>13959567.72</v>
+      </c>
+      <c r="E7">
+        <v>39149179.8519</v>
+      </c>
+      <c r="F7">
+        <v>6404681.080000001</v>
+      </c>
+      <c r="G7">
+        <v>46529111.432</v>
+      </c>
+      <c r="H7">
+        <v>7379931.5801</v>
+      </c>
+      <c r="J7">
+        <v>32569543.712</v>
+      </c>
+      <c r="K7">
+        <v>7645.5801</v>
+      </c>
+      <c r="L7">
+        <v>7372286</v>
+      </c>
+      <c r="M7">
+        <v>27746003.5062</v>
+      </c>
+      <c r="N7">
+        <v>6.3048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>14349206.85</v>
+      </c>
+      <c r="E8">
+        <v>39112227.4534</v>
+      </c>
+      <c r="F8">
+        <v>6710621.5</v>
+      </c>
+      <c r="G8">
+        <v>46802818.598</v>
+      </c>
+      <c r="H8">
+        <v>7690591.1446</v>
+      </c>
+      <c r="J8">
+        <v>32453611.748</v>
+      </c>
+      <c r="K8">
+        <v>9118.1446</v>
+      </c>
+      <c r="L8">
+        <v>7681473</v>
+      </c>
+      <c r="M8">
+        <v>27583156.1151</v>
+      </c>
+      <c r="N8">
+        <v>6.0857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>14051658.64</v>
+      </c>
+      <c r="E9">
+        <v>39072911.6832</v>
+      </c>
+      <c r="F9">
+        <v>5937876.57</v>
+      </c>
+      <c r="G9">
+        <v>47168782.42</v>
+      </c>
+      <c r="H9">
+        <v>8095870.7368</v>
+      </c>
+      <c r="J9">
+        <v>33117123.78</v>
+      </c>
+      <c r="K9">
+        <v>10612.7368</v>
+      </c>
+      <c r="L9">
+        <v>8085258</v>
+      </c>
+      <c r="M9">
+        <v>27032951.82669999</v>
+      </c>
+      <c r="N9">
+        <v>5.8263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>14076009.25</v>
+      </c>
+      <c r="E10">
+        <v>39093385.8548</v>
+      </c>
+      <c r="F10">
+        <v>5832100.97</v>
+      </c>
+      <c r="G10">
+        <v>47452509.052</v>
+      </c>
+      <c r="H10">
+        <v>8359123.1972</v>
+      </c>
+      <c r="J10">
+        <v>33376499.802</v>
+      </c>
+      <c r="K10">
+        <v>18145.1972</v>
+      </c>
+      <c r="L10">
+        <v>8340978</v>
+      </c>
+      <c r="M10">
+        <v>26822263.0001</v>
+      </c>
+      <c r="N10">
+        <v>5.6767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>14128387.6</v>
+      </c>
+      <c r="E11">
+        <v>39144217.6123</v>
+      </c>
+      <c r="F11">
+        <v>5494971.1</v>
+      </c>
+      <c r="G11">
+        <v>47721854.084</v>
+      </c>
+      <c r="H11">
+        <v>8577636.4717</v>
+      </c>
+      <c r="J11">
+        <v>33593466.484</v>
+      </c>
+      <c r="K11">
+        <v>13768.4717</v>
+      </c>
+      <c r="L11">
+        <v>8563868</v>
+      </c>
+      <c r="M11">
+        <v>26619517.8724</v>
+      </c>
+      <c r="N11">
+        <v>5.5635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>14165131.07</v>
+      </c>
+      <c r="E12">
+        <v>39181324.4896</v>
+      </c>
+      <c r="F12">
+        <v>4483745.02</v>
+      </c>
+      <c r="G12">
+        <v>48845898.458</v>
+      </c>
+      <c r="H12">
+        <v>9664573.9684</v>
+      </c>
+      <c r="J12">
+        <v>34680767.388</v>
+      </c>
+      <c r="K12">
+        <v>18980.9684</v>
+      </c>
+      <c r="L12">
+        <v>9645593</v>
+      </c>
+      <c r="M12">
+        <v>25635005.5988</v>
+      </c>
+      <c r="N12">
+        <v>5.0541</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +1915,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -943,57 +1932,57 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1043,10 +2032,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>2360149.5</v>
@@ -1089,6 +2078,430 @@
       </c>
       <c r="Q3">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>7259022</v>
+      </c>
+      <c r="E4">
+        <v>9097017.52</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>221</v>
+      </c>
+      <c r="I4">
+        <v>4841853</v>
+      </c>
+      <c r="J4">
+        <v>4839348</v>
+      </c>
+      <c r="K4">
+        <v>2505</v>
+      </c>
+      <c r="L4">
+        <v>9681201</v>
+      </c>
+      <c r="M4">
+        <v>6977328</v>
+      </c>
+      <c r="N4">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.73</v>
+      </c>
+      <c r="P4">
+        <v>0.19</v>
+      </c>
+      <c r="Q4">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>10346523</v>
+      </c>
+      <c r="E5">
+        <v>11110349</v>
+      </c>
+      <c r="F5">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>225</v>
+      </c>
+      <c r="I5">
+        <v>7007634</v>
+      </c>
+      <c r="J5">
+        <v>6897682</v>
+      </c>
+      <c r="K5">
+        <v>109952</v>
+      </c>
+      <c r="L5">
+        <v>13905316</v>
+      </c>
+      <c r="M5">
+        <v>7469242</v>
+      </c>
+      <c r="N5">
+        <v>0.8</v>
+      </c>
+      <c r="O5">
+        <v>0.73</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
+      <c r="Q5">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>11058429</v>
+      </c>
+      <c r="E6">
+        <v>10210194</v>
+      </c>
+      <c r="F6">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>224</v>
+      </c>
+      <c r="I6">
+        <v>7543844</v>
+      </c>
+      <c r="J6">
+        <v>7372286</v>
+      </c>
+      <c r="K6">
+        <v>171558</v>
+      </c>
+      <c r="L6">
+        <v>14916130</v>
+      </c>
+      <c r="M6">
+        <v>7394290</v>
+      </c>
+      <c r="N6">
+        <v>0.68</v>
+      </c>
+      <c r="O6">
+        <v>0.76</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>11522209.5</v>
+      </c>
+      <c r="E7">
+        <v>10338683</v>
+      </c>
+      <c r="F7">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>47</v>
+      </c>
+      <c r="H7">
+        <v>233</v>
+      </c>
+      <c r="I7">
+        <v>7425264</v>
+      </c>
+      <c r="J7">
+        <v>7681473</v>
+      </c>
+      <c r="K7">
+        <v>-256209</v>
+      </c>
+      <c r="L7">
+        <v>15106737</v>
+      </c>
+      <c r="M7">
+        <v>8156115</v>
+      </c>
+      <c r="N7">
+        <v>0.68</v>
+      </c>
+      <c r="O7">
+        <v>0.77</v>
+      </c>
+      <c r="P7">
+        <v>0.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>12127887</v>
+      </c>
+      <c r="E8">
+        <v>8275991</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>48</v>
+      </c>
+      <c r="H8">
+        <v>236</v>
+      </c>
+      <c r="I8">
+        <v>8085258</v>
+      </c>
+      <c r="J8">
+        <v>8085258</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>16170516</v>
+      </c>
+      <c r="M8">
+        <v>8207258</v>
+      </c>
+      <c r="N8">
+        <v>0.51</v>
+      </c>
+      <c r="O8">
+        <v>0.6</v>
+      </c>
+      <c r="P8">
+        <v>0.2</v>
+      </c>
+      <c r="Q8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>12515967</v>
+      </c>
+      <c r="E9">
+        <v>7445943</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>49</v>
+      </c>
+      <c r="H9">
+        <v>203</v>
+      </c>
+      <c r="I9">
+        <v>8343978</v>
+      </c>
+      <c r="J9">
+        <v>8343978</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>16687956</v>
+      </c>
+      <c r="M9">
+        <v>8546842</v>
+      </c>
+      <c r="N9">
+        <v>0.45</v>
+      </c>
+      <c r="O9">
+        <v>0.51</v>
+      </c>
+      <c r="P9">
+        <v>0.24</v>
+      </c>
+      <c r="Q9">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>12845802</v>
+      </c>
+      <c r="E10">
+        <v>11706871.02</v>
+      </c>
+      <c r="F10">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>51</v>
+      </c>
+      <c r="H10">
+        <v>205</v>
+      </c>
+      <c r="I10">
+        <v>8563868</v>
+      </c>
+      <c r="J10">
+        <v>8563868</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>17127736</v>
+      </c>
+      <c r="M10">
+        <v>8891745</v>
+      </c>
+      <c r="N10">
+        <v>0.68</v>
+      </c>
+      <c r="O10">
+        <v>0.65</v>
+      </c>
+      <c r="P10">
+        <v>0.25</v>
+      </c>
+      <c r="Q10">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>14468389.5</v>
+      </c>
+      <c r="E11">
+        <v>13494928.93</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>52</v>
+      </c>
+      <c r="H11">
+        <v>207</v>
+      </c>
+      <c r="I11">
+        <v>9645593</v>
+      </c>
+      <c r="J11">
+        <v>9645593</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>19291186</v>
+      </c>
+      <c r="M11">
+        <v>9645593</v>
+      </c>
+      <c r="N11">
+        <v>0.7</v>
+      </c>
+      <c r="O11">
+        <v>0.77</v>
+      </c>
+      <c r="P11">
+        <v>0.25</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
